--- a/TP/Dateien/Zeitplan_Fazit.xlsx
+++ b/TP/Dateien/Zeitplan_Fazit.xlsx
@@ -212,19 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -242,19 +230,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,16 +551,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12">
-        <v>60</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="16">
+        <v>36</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="22">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -571,9 +571,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="23"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -583,9 +583,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="23"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -595,32 +595,32 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -631,10 +631,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
@@ -643,12 +643,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -659,44 +659,44 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -707,10 +707,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
@@ -722,12 +722,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B1:B13"/>
-    <mergeCell ref="C1:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C11"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D12:D13"/>
@@ -736,6 +730,12 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B1:B13"/>
+    <mergeCell ref="C1:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
